--- a/6_Documentation/Dictionaries/diccionario_google_maps.xlsx
+++ b/6_Documentation/Dictionaries/diccionario_google_maps.xlsx
@@ -1,13 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Henry\02. Course\3. Final Proyect\Commerce-Data-Analysis-and-Recommendations\Commerce-Data-Analysis-and-Recommendations\6_Documentation\Dictionaries\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1900B177-2A63-41A3-9BB8-AFF1DF3DA39D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="metadata" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="rewiev-estado" sheetId="2" r:id="rId5"/>
+    <sheet name="metadata" sheetId="1" r:id="rId1"/>
+    <sheet name="rewiev-estado" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -74,9 +83,6 @@
     <t>category</t>
   </si>
   <si>
-    <t>categoria del negcio</t>
-  </si>
-  <si>
     <t>avg_rating</t>
   </si>
   <si>
@@ -167,9 +173,6 @@
     <t>text</t>
   </si>
   <si>
-    <t>texto de la reseña o descrpcion del servicio</t>
-  </si>
-  <si>
     <t>resp</t>
   </si>
   <si>
@@ -177,62 +180,70 @@
   </si>
   <si>
     <t>respuesta empresarial a la visita, incluida la hora Unix y el texto de la respuesta</t>
+  </si>
+  <si>
+    <t>texto de la reseña o descripcion del servicio</t>
+  </si>
+  <si>
+    <t>categoria del negocio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="&quot;Quattrocento Sans&quot;"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="&quot;Quattrocento Sans&quot;"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -242,7 +253,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -264,7 +275,13 @@
     </fill>
   </fills>
   <borders count="4">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FFAEABAB"/>
@@ -278,8 +295,10 @@
       <bottom style="thin">
         <color rgb="FFAEABAB"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FFAEABAB"/>
       </right>
@@ -289,74 +308,68 @@
       <bottom style="thin">
         <color rgb="FFAEABAB"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FFAEABAB"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -546,24 +559,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="17.38"/>
-    <col customWidth="1" min="3" max="3" width="39.5"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="39.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -577,7 +595,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -591,7 +609,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -603,7 +621,7 @@
       </c>
       <c r="F3" s="7"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
@@ -614,7 +632,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
@@ -625,7 +643,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
@@ -636,7 +654,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
@@ -647,7 +665,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
@@ -655,116 +673,119 @@
         <v>5</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="5" t="s">
+    </row>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A10" s="8" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="8" t="s">
-        <v>24</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A11" s="4" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A12" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="C12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="5" t="s">
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A13" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="C13" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="5" t="s">
+    </row>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A14" s="8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="8" t="s">
+      <c r="B14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="5" t="s">
+    </row>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A15" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="4" t="s">
+      <c r="B15" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="5" t="s">
+    </row>
+    <row r="16" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A16" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="4" t="s">
+      <c r="B16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>40</v>
-      </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="61.13"/>
+    <col min="3" max="3" width="61.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -778,76 +799,76 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="F2" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="7" t="s">
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A3" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="s">
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="5" t="s">
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A4" s="4" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="s">
-        <v>46</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A5" s="8" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="11" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="11" t="s">
+      <c r="B6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A7" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="B7" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8">
+    </row>
+    <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
@@ -858,28 +879,28 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:6">
       <c r="A9" s="12"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:6">
       <c r="A10" s="12"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:6">
       <c r="A11" s="12"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:6">
       <c r="A12" s="12"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:6">
       <c r="A13" s="12"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:6">
       <c r="A14" s="12"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:6">
       <c r="A15" s="12"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>